--- a/AAII_Financials/Quarterly/EQRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>EQRX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +708,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +740,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +772,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +804,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,23 +820,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E12" s="3">
         <v>61900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>169100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>55300</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +850,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +882,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +914,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +946,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,23 +959,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E17" s="3">
         <v>101600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>177600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72400</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,8 +989,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,14 +1001,14 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-177600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-72400</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1021,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,8 +1037,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1014,14 +1047,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,8 +1067,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1043,14 +1079,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-177300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-72300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1099,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,23 +1131,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-101200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-177600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-72400</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1163,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1195,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,23 +1227,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-101200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-177600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-72400</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,23 +1259,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-101200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-177600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-72400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1291,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1323,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1355,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1387,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,8 +1419,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1362,14 +1431,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,23 +1451,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-101200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-177600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-72400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1483,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,23 +1515,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-101200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-177600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-72400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,28 +1547,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1584,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1600,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,17 +1614,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1678500</v>
+      </c>
+      <c r="E41" s="3">
         <v>456500</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1644,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,8 +1676,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1616,8 +1708,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,17 +1740,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E45" s="3">
         <v>10600</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,17 +1772,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1706200</v>
+      </c>
+      <c r="E46" s="3">
         <v>467000</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,46 +1804,52 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>4000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
         <v>5500</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1868,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +1900,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1932,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,17 +1964,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E52" s="3">
         <v>12200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1996,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,17 +2028,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1729400</v>
+      </c>
+      <c r="E54" s="3">
         <v>484700</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2060,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2076,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,17 +2090,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,8 +2120,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2019,17 +2152,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E59" s="3">
         <v>23200</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,17 +2184,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E60" s="3">
         <v>26400</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,8 +2216,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2106,17 +2248,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2280,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2312,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2344,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,17 +2376,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>214600</v>
+      </c>
+      <c r="E66" s="3">
         <v>28400</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2408,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2424,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2454,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,17 +2486,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>811400</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -2351,8 +2518,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,17 +2550,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-358500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-359700</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2582,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2614,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2646,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,17 +2678,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1514800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-355200</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2710,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,28 +2742,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,23 +2779,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-101200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-177600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-72400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2811,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,23 +2827,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,8 +2857,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2889,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2921,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2953,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2985,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,23 +3017,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-102800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-172200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-69300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3049,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,23 +3065,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,8 +3095,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3127,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,23 +3159,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3191,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3207,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3237,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3269,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3301,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,23 +3333,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1306600</v>
+      </c>
+      <c r="E100" s="3">
         <v>69900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>496900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>218600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3365,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,23 +3397,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1222100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>323700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>147300</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3427,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>EQRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,45 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,8 +713,14 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -743,8 +751,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,8 +789,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +827,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -821,29 +847,31 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F12" s="3">
         <v>56200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>61900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>169100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>55300</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -853,8 +881,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,8 +919,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -917,8 +957,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -949,8 +995,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -960,29 +1012,31 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>85700</v>
+      </c>
+      <c r="F17" s="3">
         <v>94800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>101600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>177600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>72400</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1046,14 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,20 +1061,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-101600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-177600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-72400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1084,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1038,8 +1104,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1047,20 +1115,20 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>106400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>96000</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1070,8 +1138,14 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1079,20 +1153,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-177300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-72300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1102,8 +1176,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1134,29 +1214,35 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-101200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-177600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-72400</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1166,8 +1252,14 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1198,8 +1290,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1230,29 +1328,35 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-101200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-177600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-72400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,29 +1366,35 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-101200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-177600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-72400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,8 +1404,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1326,8 +1442,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,8 +1480,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1390,8 +1518,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,8 +1556,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1431,20 +1571,20 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-106400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1454,29 +1594,35 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-101200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-177600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-72400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,8 +1632,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1518,29 +1670,35 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-101200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-177600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-72400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1550,34 +1708,40 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1587,8 +1751,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1601,8 +1771,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1615,23 +1787,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>864400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1623300</v>
+      </c>
+      <c r="F41" s="3">
         <v>1678500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>456500</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,31 +1821,37 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>692900</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1679,8 +1859,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1711,8 +1897,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1743,23 +1935,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F45" s="3">
         <v>27700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>10600</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,23 +1973,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1588300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1655300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1706200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>467000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1807,19 +2011,25 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>4000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1833,29 +2043,35 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1871,8 +2087,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1903,8 +2125,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1935,8 +2163,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1967,23 +2201,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F52" s="3">
         <v>14600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>12200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,8 +2239,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2031,23 +2277,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1608300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1674100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1729400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>484700</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2063,8 +2315,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2077,8 +2335,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2091,23 +2351,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F57" s="3">
         <v>7600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,8 +2385,14 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2155,23 +2423,29 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>49300</v>
+      </c>
+      <c r="F59" s="3">
         <v>32000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>23200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,23 +2461,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>56600</v>
+      </c>
+      <c r="F60" s="3">
         <v>39600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>26400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2219,8 +2499,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2251,23 +2537,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>68900</v>
+      </c>
+      <c r="F62" s="3">
         <v>175000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2283,8 +2575,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2315,8 +2613,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2347,8 +2651,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2379,23 +2689,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>133800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>125500</v>
+      </c>
+      <c r="F66" s="3">
         <v>214600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>28400</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2727,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2425,8 +2747,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2457,8 +2781,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2489,8 +2819,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2498,14 +2834,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>811400</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2521,8 +2857,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2553,23 +2895,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-420300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-337800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-358500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-359700</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2933,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2617,8 +2971,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2649,8 +3009,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2681,23 +3047,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1474500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1548600</v>
+      </c>
+      <c r="F76" s="3">
         <v>1514800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-355200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2713,8 +3085,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2745,34 +3123,40 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2782,29 +3166,35 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-101200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-177600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-72400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2814,8 +3204,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2828,29 +3224,31 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,8 +3258,14 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2892,8 +3296,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2924,8 +3334,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2956,8 +3372,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2988,8 +3410,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3020,29 +3448,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-80400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-102800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-172200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-69300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3052,8 +3486,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3066,8 +3506,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3075,20 +3517,20 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3540,14 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3130,8 +3578,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3162,29 +3616,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-693800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3194,8 +3654,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3208,8 +3674,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3240,8 +3708,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3272,8 +3746,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3304,8 +3784,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3336,29 +3822,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>1306600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>69900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>496900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>218600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3368,8 +3860,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3400,29 +3898,35 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-758800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="F102" s="3">
         <v>1222100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-33200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>323700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>147300</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,6 +3934,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>EQRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,48 +665,49 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,8 +720,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,8 +761,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,8 +802,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,8 +843,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,32 +862,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E12" s="3">
         <v>47300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>53400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>56200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>61900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>169100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>55300</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,8 +942,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,8 +983,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1024,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,32 +1040,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E17" s="3">
         <v>79100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>85700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>94800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>101600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>177600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72400</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,8 +1079,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1061,23 +1091,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-85700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-94800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-101600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-177600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-72400</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1120,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,8 +1139,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1115,23 +1149,23 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F20" s="3">
         <v>106400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>96000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1178,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1153,23 +1190,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="F21" s="3">
         <v>21100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-177300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-72300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,8 +1219,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1220,32 +1260,35 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-82500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-101200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-177600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-72400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,8 +1301,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1296,8 +1342,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,32 +1383,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-82500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-101200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-177600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-72400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1372,32 +1424,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-82500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-101200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-177600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-72400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1410,8 +1465,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1547,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,8 +1629,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1571,23 +1641,23 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-106400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-96000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1600,32 +1670,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-82500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-101200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-177600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-72400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1638,8 +1711,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,32 +1752,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-82500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-101200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-177600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-72400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,37 +1793,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1839,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,26 +1875,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>998000</v>
+      </c>
+      <c r="E41" s="3">
         <v>864400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1623300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1678500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>456500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1827,17 +1914,20 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>501300</v>
+      </c>
+      <c r="E42" s="3">
         <v>692900</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1853,8 +1943,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1865,8 +1955,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1903,8 +1996,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1941,26 +2037,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E45" s="3">
         <v>30900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1979,26 +2078,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1588300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1655300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1706200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>467000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2119,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2031,8 +2136,8 @@
       <c r="F47" s="3">
         <v>4000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>4000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2049,32 +2154,35 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E48" s="3">
         <v>6400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,8 +2201,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2131,8 +2242,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,26 +2324,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E52" s="3">
         <v>9600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,8 +2365,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,26 +2406,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1543400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1608300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1674100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1729400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>484700</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2447,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,26 +2483,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E57" s="3">
         <v>13000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,8 +2522,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2429,26 +2563,29 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E59" s="3">
         <v>42200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2467,26 +2604,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E60" s="3">
         <v>55300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2505,8 +2645,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2543,26 +2686,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E62" s="3">
         <v>78500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>68900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>175000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2727,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,26 +2850,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E66" s="3">
         <v>133800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>125500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>214600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2891,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2840,11 +3008,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>811400</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2863,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,26 +3072,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-505400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-420300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-337800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-358500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-359700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,8 +3113,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,26 +3236,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1474500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1548600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1514800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-355200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3091,8 +3277,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,37 +3318,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3172,32 +3364,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-82500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-101200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-177600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-72400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,8 +3405,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,32 +3424,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3264,8 +3463,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,32 +3668,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-65400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-53900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-80400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-102800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-172200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-69300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3492,8 +3709,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,32 +3728,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3546,8 +3767,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,32 +3849,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-693800</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3890,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,8 +3909,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3714,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,32 +4071,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1306600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>69900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>496900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>218600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,8 +4112,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3904,32 +4153,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>133600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-758800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-55300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1222100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-33200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>323700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>147300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3940,6 +4192,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>EQRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,52 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,8 +723,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -764,8 +767,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,8 +811,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +855,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,35 +875,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E12" s="3">
         <v>56300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>47300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>53400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>56200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>61900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>169100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>55300</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,8 +917,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,8 +961,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,8 +1005,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1049,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,35 +1066,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E17" s="3">
         <v>90400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>79100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>85700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>94800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>101600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>177600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>72400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1082,8 +1108,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1091,26 +1120,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-90400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-79100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-85700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-94800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-101600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-177600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-72400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1152,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,8 +1172,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,26 +1182,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>106400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>96000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1181,8 +1214,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1190,26 +1226,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-82300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>21100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-177300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-72300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1258,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1263,35 +1302,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-85100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-82500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-101200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-177600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-72400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1346,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1345,8 +1390,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,35 +1434,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-85100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-82500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-101200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-177600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-72400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1427,35 +1478,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-85100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-82500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-101200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-177600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-72400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1468,8 +1522,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1566,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1610,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1654,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,8 +1698,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1641,26 +1710,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F32" s="3">
         <v>3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-106400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-96000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1673,35 +1742,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-85100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-82500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-101200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-177600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-72400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1786,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,35 +1830,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-85100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-82500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-101200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-177600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-72400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1796,40 +1874,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +1923,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +1943,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,29 +1961,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>494100</v>
+      </c>
+      <c r="E41" s="3">
         <v>998000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>864400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1623300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1678500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>456500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,20 +2003,23 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>905200</v>
+      </c>
+      <c r="E42" s="3">
         <v>501300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>692900</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,8 +2035,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1958,8 +2047,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1999,8 +2091,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2040,29 +2135,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E45" s="3">
         <v>24600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,29 +2179,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1428100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1524000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1588300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1655300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1706200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>467000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2223,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2139,8 +2243,8 @@
       <c r="G47" s="3">
         <v>4000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>4000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2157,35 +2261,38 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
         <v>6100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,8 +2311,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2245,8 +2355,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2399,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,29 +2443,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E52" s="3">
         <v>9300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2487,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,29 +2531,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1543400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1608300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1674100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1729400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>484700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2575,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2595,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,29 +2613,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E57" s="3">
         <v>14100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2655,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2566,29 +2699,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E59" s="3">
         <v>48600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,29 +2743,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E60" s="3">
         <v>62700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>55300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2787,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2689,29 +2831,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E62" s="3">
         <v>80800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>78500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>68900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>175000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +2875,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +2919,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +2963,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,29 +3007,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E66" s="3">
         <v>143500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>133800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>125500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>214600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3051,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3071,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3113,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3157,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3011,11 +3178,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>811400</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3034,8 +3201,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,29 +3245,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-527600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-505400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-420300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-337800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-358500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-359700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3289,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3333,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3377,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,29 +3421,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1388900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1400000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1474500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1548600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1514800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-355200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3465,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,40 +3509,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3367,35 +3558,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-85100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-82500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-101200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-177600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-72400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,8 +3602,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,8 +3622,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3434,26 +3632,26 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,8 +3664,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3708,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3752,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +3796,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +3840,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,35 +3884,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-105800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-62100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-65400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-53900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-80400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-102800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-172200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-69300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3712,8 +3928,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,35 +3948,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3770,8 +3990,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4034,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,35 +4078,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-398400</v>
+      </c>
+      <c r="E94" s="3">
         <v>194900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-693800</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3893,8 +4122,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4142,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3951,8 +4184,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4228,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4272,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,35 +4316,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1306600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>69900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>496900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>218600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4115,8 +4360,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4156,35 +4404,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-503900</v>
+      </c>
+      <c r="E102" s="3">
         <v>133600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-758800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-55300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1222100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-33200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>323700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>147300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4195,6 +4446,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>EQRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,56 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,8 +727,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +774,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -814,8 +821,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,8 +868,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,38 +889,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E12" s="3">
         <v>71500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>56300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>47300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>53400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>56200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>61900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>169100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>55300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -920,8 +934,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,8 +981,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1008,8 +1028,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,8 +1075,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1067,38 +1093,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E17" s="3">
         <v>100700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>90400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>79100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>85700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>94800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>101600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>177600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>72400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1111,8 +1138,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1120,29 +1150,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-100700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-90400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-79100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-85700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-94800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-101600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-177600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-72400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,8 +1185,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1173,8 +1206,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1182,29 +1216,29 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>78600</v>
+      </c>
+      <c r="F20" s="3">
         <v>5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>106400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>96000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1217,8 +1251,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,29 +1263,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-84900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-82300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>21100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-177300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-72300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,8 +1298,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1305,38 +1345,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-22200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-85100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-82500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-101200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-177600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-72400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1349,8 +1392,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1393,8 +1439,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,38 +1486,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-22200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-85100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-82500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-101200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-177600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-72400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1481,38 +1533,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-22200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-85100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-82500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-101200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-177600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-72400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1525,8 +1580,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1569,8 +1627,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1613,8 +1674,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1657,8 +1721,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1701,8 +1768,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1710,29 +1780,29 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-106400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-96000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1745,38 +1815,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-22200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-85100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-82500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-101200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-177600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-72400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1789,8 +1862,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1833,38 +1909,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-22200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-85100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-82500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-101200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-177600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-72400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,43 +1956,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1926,8 +2008,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1944,8 +2029,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1962,32 +2048,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>368400</v>
+      </c>
+      <c r="E41" s="3">
         <v>494100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>998000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>864400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1623300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1678500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>456500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2006,23 +2093,26 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>957600</v>
+      </c>
+      <c r="E42" s="3">
         <v>905200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>501300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>692900</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,8 +2128,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2050,8 +2140,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2094,8 +2187,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2138,32 +2234,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E45" s="3">
         <v>28800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2182,32 +2281,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1355000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1428100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1524000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1588300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1655300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1706200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>467000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,8 +2328,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2246,8 +2351,8 @@
       <c r="H47" s="3">
         <v>4000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>4000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2264,38 +2369,41 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E48" s="3">
         <v>6400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2314,8 +2422,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2358,8 +2469,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2402,8 +2516,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2446,32 +2563,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E52" s="3">
         <v>16500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,8 +2610,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,32 +2657,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1384000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1455000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1543400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1608300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1674100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1729400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>484700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2704,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2596,8 +2725,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2614,32 +2744,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E57" s="3">
         <v>20000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2658,8 +2789,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2702,32 +2836,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E59" s="3">
         <v>32000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2746,32 +2883,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E60" s="3">
         <v>51900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>62700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>55300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>39600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2790,8 +2930,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2834,32 +2977,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E62" s="3">
         <v>14200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>80800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>78500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>68900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>175000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2878,8 +3024,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2922,8 +3071,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2966,8 +3118,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3010,32 +3165,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E66" s="3">
         <v>66200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>143500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>133800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>125500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>214600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3212,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3072,8 +3233,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3116,8 +3278,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3160,8 +3325,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3181,11 +3349,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>811400</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3204,8 +3372,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3248,32 +3419,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-610100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-527600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-505400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-420300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-337800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-358500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-359700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3292,8 +3466,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3336,8 +3513,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3380,8 +3560,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3424,32 +3607,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1314300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1388900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1400000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1474500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1548600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1514800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-355200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3654,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3512,43 +3701,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3561,38 +3753,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-22200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-85100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-82500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-101200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-177600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-72400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3605,8 +3800,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3623,38 +3821,39 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3667,8 +3866,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3711,8 +3913,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3755,8 +3960,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3799,8 +4007,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3843,8 +4054,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3887,38 +4101,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-105800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-62100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-65400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-53900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-80400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-102800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-172200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-69300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3931,8 +4148,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3949,38 +4169,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3993,8 +4214,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4037,8 +4261,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4081,38 +4308,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-398400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>194900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-693800</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4125,8 +4355,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4143,8 +4376,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4187,8 +4421,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4231,8 +4468,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4275,8 +4515,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4319,38 +4562,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1306600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>69900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>496900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>218600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,8 +4609,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4407,38 +4656,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-125800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-503900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>133600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-758800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-55300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1222100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-33200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>323700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>147300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4449,6 +4701,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQRX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,60 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,8 +731,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,8 +781,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -824,8 +831,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -871,8 +881,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,41 +903,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E12" s="3">
         <v>70900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>71500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>56300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>47300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>53400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>56200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>61900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>169100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>55300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +951,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -984,31 +1001,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>26800</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1031,8 +1051,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1078,8 +1101,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1094,41 +1120,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E17" s="3">
         <v>101800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>90400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>79100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>85700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>94800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>101600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>177600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>72400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1141,8 +1168,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1150,32 +1180,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-101800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-90400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-79100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-85700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-94800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-101600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-177600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-72400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1188,8 +1218,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1207,8 +1240,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1216,32 +1250,32 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F20" s="3">
         <v>78600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>106400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>96000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,8 +1288,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1263,32 +1300,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-22000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-84900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-82300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-177300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-72300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1301,8 +1338,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1348,41 +1388,44 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-73000</v>
       </c>
       <c r="E23" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-22200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-85100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-82500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-101200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-177600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-72400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1395,8 +1438,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,8 +1488,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1489,41 +1538,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-73000</v>
       </c>
       <c r="E26" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-22200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-85100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-82500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-101200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-177600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-72400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1536,41 +1588,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-73000</v>
       </c>
       <c r="E27" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-22200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-85100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-82500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-101200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-177600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-72400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,8 +1638,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1630,8 +1688,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1677,8 +1738,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1724,8 +1788,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1771,8 +1838,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1780,32 +1850,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-78600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-106400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-96000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1818,41 +1888,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-73000</v>
       </c>
       <c r="E33" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-22200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-85100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-82500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-101200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-177600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-72400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1865,8 +1938,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1912,41 +1988,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-73000</v>
       </c>
       <c r="E35" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-22200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-85100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-82500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-101200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-177600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-72400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,46 +2038,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2093,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2030,8 +2115,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2049,35 +2135,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>247500</v>
+      </c>
+      <c r="E41" s="3">
         <v>368400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>494100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>998000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>864400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1623300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1678500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>456500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,26 +2183,29 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1014100</v>
+      </c>
+      <c r="E42" s="3">
         <v>957600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>905200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>501300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>692900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2131,8 +2221,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2143,8 +2233,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2190,8 +2283,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2237,35 +2333,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E45" s="3">
         <v>29700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,35 +2383,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1355000</v>
+        <v>1284300</v>
       </c>
       <c r="E46" s="3">
+        <v>1355600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1428100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1524000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1588300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1655300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1706200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>467000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,8 +2433,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2354,8 +2459,8 @@
       <c r="I47" s="3">
         <v>4000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>4000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2372,41 +2477,44 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,8 +2533,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2472,8 +2583,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2519,8 +2633,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2566,35 +2683,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E52" s="3">
         <v>18500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,8 +2733,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2660,35 +2783,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1311400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1384000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1455000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1543400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1608300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1674100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1729400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>484700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,8 +2833,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2726,8 +2855,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2745,35 +2875,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E57" s="3">
         <v>20700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +2923,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2839,35 +2973,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E59" s="3">
         <v>39200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2886,35 +3023,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E60" s="3">
         <v>59900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>55300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,8 +3073,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2980,35 +3123,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E62" s="3">
         <v>9800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>80800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>78500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>68900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>175000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,8 +3173,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3074,8 +3223,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3121,8 +3273,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3168,35 +3323,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E66" s="3">
         <v>69600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>66200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>143500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>133800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>125500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>214600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3215,8 +3373,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3234,8 +3395,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3281,8 +3443,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3328,8 +3493,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3352,11 +3520,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>811400</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3375,8 +3543,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3422,35 +3593,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-683100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-610100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-527600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-505400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-420300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-337800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-358500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-359700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3643,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3516,8 +3693,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3563,8 +3743,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3610,35 +3793,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1248300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1314300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1388900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1400000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1474500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1548600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1514800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-355200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3657,8 +3843,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3704,46 +3893,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3756,41 +3948,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-73000</v>
       </c>
       <c r="E81" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-22200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-85100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-82500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-101200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-177600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-72400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3803,8 +3998,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3822,41 +4020,42 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4068,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3916,8 +4118,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3963,8 +4168,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4010,8 +4218,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4057,8 +4268,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4104,41 +4318,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-85500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-105800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-62100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-65400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-53900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-80400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-102800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-172200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-69300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4151,8 +4368,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4170,41 +4390,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4217,8 +4438,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4264,8 +4488,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4311,41 +4538,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-40400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-398400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>194900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-693800</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4588,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4377,8 +4610,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4424,8 +4658,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4471,8 +4708,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4518,8 +4758,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4565,41 +4808,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1306600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>69900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>496900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>218600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4612,8 +4858,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4659,41 +4908,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-125800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-503900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>133600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-758800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-55300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1222100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>323700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>147300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4704,6 +4956,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
